--- a/projects/pilot_exp/align_reads_stats/alignment_stats.xlsx
+++ b/projects/pilot_exp/align_reads_stats/alignment_stats.xlsx
@@ -34,52 +34,52 @@
     <t>Mapping_percent</t>
   </si>
   <si>
-    <t>L-1_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>A-NaCl_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>L-NaCl_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>Rich-1_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>U-1_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>A-2_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>U-NaCl_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>L-1+2_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>L-2_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>U-1+2_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>A-1_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>A-1+2_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>U-2_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>Rich-2_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>Rich-1+2_UMI-trimmed.fastq.bz2</t>
-  </si>
-  <si>
-    <t>Rich-NaCl_UMI-trimmed.fastq.bz2</t>
+    <t>L-2_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>L-1+2_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>L-1_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>Rich-2_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>U-1+2_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>U-1_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>U-2_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>Rich-1+2_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>Rich-1_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>A-2_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>A-1+2_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>A-1_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>U-NaCl_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>Rich-NaCl_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>A-NaCl_UMI-trimmed_SWalign.json.bz2</t>
+  </si>
+  <si>
+    <t>L-NaCl_UMI-trimmed_SWalign.json.bz2</t>
   </si>
 </sst>
 </file>
@@ -471,19 +471,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>50984</v>
+        <v>65152</v>
       </c>
       <c r="D2">
-        <v>47078</v>
+        <v>62189</v>
       </c>
       <c r="E2">
-        <v>79.80585411444837</v>
+        <v>80.26017462895368</v>
       </c>
       <c r="F2">
-        <v>20.19414588555164</v>
+        <v>19.73982537104633</v>
       </c>
       <c r="G2">
-        <v>92.33877294837596</v>
+        <v>95.45217337917485</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -494,19 +494,19 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>78877</v>
+        <v>67145</v>
       </c>
       <c r="D3">
-        <v>74691</v>
+        <v>64205</v>
       </c>
       <c r="E3">
-        <v>79.52765393420894</v>
+        <v>80.17755626508838</v>
       </c>
       <c r="F3">
-        <v>20.47234606579106</v>
+        <v>19.82244373491161</v>
       </c>
       <c r="G3">
-        <v>94.69300303003411</v>
+        <v>95.62141633777645</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -517,19 +517,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>67209</v>
+        <v>51021</v>
       </c>
       <c r="D4">
-        <v>63401</v>
+        <v>47079</v>
       </c>
       <c r="E4">
-        <v>81.32521569060425</v>
+        <v>79.92948023534909</v>
       </c>
       <c r="F4">
-        <v>18.67478430939575</v>
+        <v>20.07051976465091</v>
       </c>
       <c r="G4">
-        <v>94.33409216027616</v>
+        <v>92.27376962427236</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -540,19 +540,19 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>46488</v>
+        <v>64698</v>
       </c>
       <c r="D5">
-        <v>43818</v>
+        <v>61083</v>
       </c>
       <c r="E5">
-        <v>79.88269660869962</v>
+        <v>81.29921582109588</v>
       </c>
       <c r="F5">
-        <v>20.11730339130038</v>
+        <v>18.70078417890412</v>
       </c>
       <c r="G5">
-        <v>94.25658234383066</v>
+        <v>94.41250115923212</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -563,19 +563,19 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>82432</v>
+        <v>86002</v>
       </c>
       <c r="D6">
-        <v>76622</v>
+        <v>80946</v>
       </c>
       <c r="E6">
-        <v>79.04257262927096</v>
+        <v>79.0032861413782</v>
       </c>
       <c r="F6">
-        <v>20.95742737072904</v>
+        <v>20.9967138586218</v>
       </c>
       <c r="G6">
-        <v>92.95176630434783</v>
+        <v>94.12106695193135</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -586,19 +586,19 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>78930</v>
+        <v>82559</v>
       </c>
       <c r="D7">
-        <v>75911</v>
+        <v>76634</v>
       </c>
       <c r="E7">
-        <v>78.57227542780362</v>
+        <v>79.08239162773704</v>
       </c>
       <c r="F7">
-        <v>21.42772457219639</v>
+        <v>20.91760837226296</v>
       </c>
       <c r="G7">
-        <v>96.17509185354112</v>
+        <v>92.82331423587979</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -609,19 +609,19 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>119442</v>
+        <v>53983</v>
       </c>
       <c r="D8">
-        <v>111690</v>
+        <v>51100</v>
       </c>
       <c r="E8">
-        <v>80.20950846091861</v>
+        <v>79.55577299412916</v>
       </c>
       <c r="F8">
-        <v>19.79049153908139</v>
+        <v>20.44422700587084</v>
       </c>
       <c r="G8">
-        <v>93.50982066609735</v>
+        <v>94.65942982049904</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -632,19 +632,19 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>67122</v>
+        <v>44293</v>
       </c>
       <c r="D9">
-        <v>64207</v>
+        <v>41689</v>
       </c>
       <c r="E9">
-        <v>80.07538118896693</v>
+        <v>80.61119240087314</v>
       </c>
       <c r="F9">
-        <v>19.92461881103306</v>
+        <v>19.38880759912687</v>
       </c>
       <c r="G9">
-        <v>95.65716158636512</v>
+        <v>94.12096719571942</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -655,19 +655,19 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>65081</v>
+        <v>46515</v>
       </c>
       <c r="D10">
-        <v>62187</v>
+        <v>43828</v>
       </c>
       <c r="E10">
-        <v>80.15984048112949</v>
+        <v>79.9899607556813</v>
       </c>
       <c r="F10">
-        <v>19.8401595188705</v>
+        <v>20.0100392443187</v>
       </c>
       <c r="G10">
-        <v>95.55323366266653</v>
+        <v>94.22336880576158</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -678,19 +678,19 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>85927</v>
+        <v>78996</v>
       </c>
       <c r="D11">
-        <v>80934</v>
+        <v>75910</v>
       </c>
       <c r="E11">
-        <v>78.93345194850124</v>
+        <v>78.72480569094981</v>
       </c>
       <c r="F11">
-        <v>21.06654805149875</v>
+        <v>21.27519430905019</v>
       </c>
       <c r="G11">
-        <v>94.1892536688119</v>
+        <v>96.09347308724492</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -701,19 +701,19 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>47765</v>
+        <v>63096</v>
       </c>
       <c r="D12">
-        <v>45567</v>
+        <v>59684</v>
       </c>
       <c r="E12">
-        <v>78.17499506221608</v>
+        <v>78.83017224046645</v>
       </c>
       <c r="F12">
-        <v>21.82500493778392</v>
+        <v>21.16982775953354</v>
       </c>
       <c r="G12">
-        <v>95.39830419763426</v>
+        <v>94.59236718650943</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -724,19 +724,19 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>63060</v>
+        <v>47789</v>
       </c>
       <c r="D13">
-        <v>59693</v>
+        <v>45569</v>
       </c>
       <c r="E13">
-        <v>78.69599450521837</v>
+        <v>78.3185937808598</v>
       </c>
       <c r="F13">
-        <v>21.30400549478163</v>
+        <v>21.68140621914021</v>
       </c>
       <c r="G13">
-        <v>94.66064065968919</v>
+        <v>95.354579505744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -747,19 +747,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>53934</v>
+        <v>119516</v>
       </c>
       <c r="D14">
-        <v>51099</v>
+        <v>111682</v>
       </c>
       <c r="E14">
-        <v>79.49862032525098</v>
+        <v>80.25644239895416</v>
       </c>
       <c r="F14">
-        <v>20.50137967474902</v>
+        <v>19.74355760104583</v>
       </c>
       <c r="G14">
-        <v>94.74357548114362</v>
+        <v>93.44522909066568</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -770,19 +770,19 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>64639</v>
+        <v>68444</v>
       </c>
       <c r="D15">
-        <v>61084</v>
+        <v>63432</v>
       </c>
       <c r="E15">
-        <v>81.21766747429768</v>
+        <v>82.16830621768193</v>
       </c>
       <c r="F15">
-        <v>18.78233252570231</v>
+        <v>17.83169378231807</v>
       </c>
       <c r="G15">
-        <v>94.50022432277727</v>
+        <v>92.67722517678686</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -793,19 +793,19 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>44266</v>
+        <v>78923</v>
       </c>
       <c r="D16">
-        <v>41686</v>
+        <v>74683</v>
       </c>
       <c r="E16">
-        <v>80.50184714292568</v>
+        <v>79.58973260313593</v>
       </c>
       <c r="F16">
-        <v>19.49815285707432</v>
+        <v>20.41026739686408</v>
       </c>
       <c r="G16">
-        <v>94.17159896986401</v>
+        <v>94.62767507570669</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -816,19 +816,19 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>68369</v>
+        <v>67262</v>
       </c>
       <c r="D17">
-        <v>63435</v>
+        <v>63407</v>
       </c>
       <c r="E17">
-        <v>82.09348151651297</v>
+        <v>81.35852508398126</v>
       </c>
       <c r="F17">
-        <v>17.90651848348703</v>
+        <v>18.64147491601874</v>
       </c>
       <c r="G17">
-        <v>92.78327897146367</v>
+        <v>94.26868068151408</v>
       </c>
     </row>
   </sheetData>
